--- a/state_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
+++ b/state_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U297"/>
+  <dimension ref="A1:U316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="G15" t="n">
-        <v>4197.50404206024</v>
+        <v>4319.58480841348</v>
       </c>
       <c r="H15" t="n">
         <v>61300</v>
       </c>
       <c r="I15" t="n">
-        <v>18070</v>
+        <v>18470.08072</v>
       </c>
       <c r="J15" t="n">
-        <v>72.72727272727271</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="K15" t="n">
-        <v>84.8484848484848</v>
+        <v>81.8181818181818</v>
       </c>
       <c r="L15" t="n">
         <v>1300</v>
@@ -1624,7 +1624,7 @@
         <v>4072.5</v>
       </c>
       <c r="N15" t="n">
-        <v>7588</v>
+        <v>9993.796109999999</v>
       </c>
       <c r="O15" t="n">
         <v>1863602</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="G16" t="n">
-        <v>4197.50404206024</v>
+        <v>4319.58480841348</v>
       </c>
       <c r="H16" t="n">
         <v>61300</v>
       </c>
       <c r="I16" t="n">
-        <v>18070</v>
+        <v>18470.08072</v>
       </c>
       <c r="J16" t="n">
-        <v>72.72727272727271</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="K16" t="n">
-        <v>84.8484848484848</v>
+        <v>81.8181818181818</v>
       </c>
       <c r="L16" t="n">
         <v>1300</v>
@@ -1709,7 +1709,7 @@
         <v>4072.5</v>
       </c>
       <c r="N16" t="n">
-        <v>7588</v>
+        <v>9993.796109999999</v>
       </c>
       <c r="O16" t="n">
         <v>1863602</v>
@@ -1770,22 +1770,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="G17" t="n">
-        <v>4197.50404206024</v>
+        <v>4319.58480841348</v>
       </c>
       <c r="H17" t="n">
         <v>61300</v>
       </c>
       <c r="I17" t="n">
-        <v>18070</v>
+        <v>18470.08072</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72727272727271</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="K17" t="n">
-        <v>84.8484848484848</v>
+        <v>81.8181818181818</v>
       </c>
       <c r="L17" t="n">
         <v>1300</v>
@@ -1794,7 +1794,7 @@
         <v>4072.5</v>
       </c>
       <c r="N17" t="n">
-        <v>7588</v>
+        <v>9993.796109999999</v>
       </c>
       <c r="O17" t="n">
         <v>1863602</v>
@@ -1855,22 +1855,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="G18" t="n">
-        <v>4197.50404206024</v>
+        <v>4319.58480841348</v>
       </c>
       <c r="H18" t="n">
         <v>61300</v>
       </c>
       <c r="I18" t="n">
-        <v>18070</v>
+        <v>18470.08072</v>
       </c>
       <c r="J18" t="n">
-        <v>72.72727272727271</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="K18" t="n">
-        <v>84.8484848484848</v>
+        <v>81.8181818181818</v>
       </c>
       <c r="L18" t="n">
         <v>1300</v>
@@ -1879,7 +1879,7 @@
         <v>4072.5</v>
       </c>
       <c r="N18" t="n">
-        <v>7588</v>
+        <v>9993.796109999999</v>
       </c>
       <c r="O18" t="n">
         <v>1863602</v>
@@ -2020,7 +2020,7 @@
         <v>0.92</v>
       </c>
       <c r="G20" t="n">
-        <v>1.07283377942961</v>
+        <v>1.0727576711984</v>
       </c>
       <c r="H20" t="n">
         <v>3.56</v>
@@ -2263,19 +2263,19 @@
         <v>910</v>
       </c>
       <c r="G23" t="n">
-        <v>2038.14444584584</v>
+        <v>2141.44355583705</v>
       </c>
       <c r="H23" t="n">
         <v>19900</v>
       </c>
       <c r="I23" t="n">
-        <v>6575</v>
+        <v>9166.96263</v>
       </c>
       <c r="J23" t="n">
-        <v>64.1025641025641</v>
+        <v>61.5384615384615</v>
       </c>
       <c r="K23" t="n">
-        <v>76.92307692307691</v>
+        <v>74.35897435897439</v>
       </c>
       <c r="L23" t="n">
         <v>910</v>
@@ -2284,7 +2284,7 @@
         <v>3100</v>
       </c>
       <c r="N23" t="n">
-        <v>4971.43293</v>
+        <v>6150</v>
       </c>
       <c r="O23" t="n">
         <v>1863602</v>
@@ -2348,19 +2348,19 @@
         <v>910</v>
       </c>
       <c r="G24" t="n">
-        <v>2038.14444584584</v>
+        <v>2141.44355583705</v>
       </c>
       <c r="H24" t="n">
         <v>19900</v>
       </c>
       <c r="I24" t="n">
-        <v>6575</v>
+        <v>9166.96263</v>
       </c>
       <c r="J24" t="n">
-        <v>64.1025641025641</v>
+        <v>61.5384615384615</v>
       </c>
       <c r="K24" t="n">
-        <v>76.92307692307691</v>
+        <v>74.35897435897439</v>
       </c>
       <c r="L24" t="n">
         <v>910</v>
@@ -2369,7 +2369,7 @@
         <v>3100</v>
       </c>
       <c r="N24" t="n">
-        <v>4971.43293</v>
+        <v>6150</v>
       </c>
       <c r="O24" t="n">
         <v>1863602</v>
@@ -2433,19 +2433,19 @@
         <v>910</v>
       </c>
       <c r="G25" t="n">
-        <v>2038.14444584584</v>
+        <v>2141.44355583705</v>
       </c>
       <c r="H25" t="n">
         <v>19900</v>
       </c>
       <c r="I25" t="n">
-        <v>6575</v>
+        <v>9166.96263</v>
       </c>
       <c r="J25" t="n">
-        <v>64.1025641025641</v>
+        <v>61.5384615384615</v>
       </c>
       <c r="K25" t="n">
-        <v>76.92307692307691</v>
+        <v>74.35897435897439</v>
       </c>
       <c r="L25" t="n">
         <v>910</v>
@@ -2454,7 +2454,7 @@
         <v>3100</v>
       </c>
       <c r="N25" t="n">
-        <v>4971.43293</v>
+        <v>6150</v>
       </c>
       <c r="O25" t="n">
         <v>1863602</v>
@@ -2518,19 +2518,19 @@
         <v>910</v>
       </c>
       <c r="G26" t="n">
-        <v>2038.14444584584</v>
+        <v>2141.44355583705</v>
       </c>
       <c r="H26" t="n">
         <v>19900</v>
       </c>
       <c r="I26" t="n">
-        <v>6575</v>
+        <v>9166.96263</v>
       </c>
       <c r="J26" t="n">
-        <v>64.1025641025641</v>
+        <v>61.5384615384615</v>
       </c>
       <c r="K26" t="n">
-        <v>76.92307692307691</v>
+        <v>74.35897435897439</v>
       </c>
       <c r="L26" t="n">
         <v>910</v>
@@ -2539,7 +2539,7 @@
         <v>3100</v>
       </c>
       <c r="N26" t="n">
-        <v>4971.43293</v>
+        <v>6150</v>
       </c>
       <c r="O26" t="n">
         <v>1863602</v>
@@ -2680,7 +2680,7 @@
         <v>0.10286</v>
       </c>
       <c r="G28" t="n">
-        <v>0.216814256884368</v>
+        <v>0.216779297733681</v>
       </c>
       <c r="H28" t="n">
         <v>1.31633408693949</v>
@@ -2761,7 +2761,7 @@
         <v>0.10286</v>
       </c>
       <c r="G29" t="n">
-        <v>0.216814256884368</v>
+        <v>0.216779297733681</v>
       </c>
       <c r="H29" t="n">
         <v>1.31633408693949</v>
@@ -3158,13 +3158,13 @@
         <v>1150</v>
       </c>
       <c r="G34" t="n">
-        <v>2223.39774493713</v>
+        <v>2417.70369676731</v>
       </c>
       <c r="H34" t="n">
         <v>19900</v>
       </c>
       <c r="I34" t="n">
-        <v>7325</v>
+        <v>9967.12406</v>
       </c>
       <c r="J34" t="n">
         <v>66.6666666666667</v>
@@ -3179,7 +3179,7 @@
         <v>3767.5</v>
       </c>
       <c r="N34" t="n">
-        <v>5148.38808</v>
+        <v>7350</v>
       </c>
       <c r="O34" t="n">
         <v>1863602</v>
@@ -3243,13 +3243,13 @@
         <v>1150</v>
       </c>
       <c r="G35" t="n">
-        <v>2223.39774493713</v>
+        <v>2417.70369676731</v>
       </c>
       <c r="H35" t="n">
         <v>19900</v>
       </c>
       <c r="I35" t="n">
-        <v>7325</v>
+        <v>9967.12406</v>
       </c>
       <c r="J35" t="n">
         <v>66.6666666666667</v>
@@ -3264,7 +3264,7 @@
         <v>3767.5</v>
       </c>
       <c r="N35" t="n">
-        <v>5148.38808</v>
+        <v>7350</v>
       </c>
       <c r="O35" t="n">
         <v>1863602</v>
@@ -3328,13 +3328,13 @@
         <v>1150</v>
       </c>
       <c r="G36" t="n">
-        <v>2223.39774493713</v>
+        <v>2417.70369676731</v>
       </c>
       <c r="H36" t="n">
         <v>19900</v>
       </c>
       <c r="I36" t="n">
-        <v>7325</v>
+        <v>9967.12406</v>
       </c>
       <c r="J36" t="n">
         <v>66.6666666666667</v>
@@ -3349,7 +3349,7 @@
         <v>3767.5</v>
       </c>
       <c r="N36" t="n">
-        <v>5148.38808</v>
+        <v>7350</v>
       </c>
       <c r="O36" t="n">
         <v>1863602</v>
@@ -3413,13 +3413,13 @@
         <v>1150</v>
       </c>
       <c r="G37" t="n">
-        <v>2223.39774493713</v>
+        <v>2417.70369676731</v>
       </c>
       <c r="H37" t="n">
         <v>19900</v>
       </c>
       <c r="I37" t="n">
-        <v>7325</v>
+        <v>9967.12406</v>
       </c>
       <c r="J37" t="n">
         <v>66.6666666666667</v>
@@ -3434,7 +3434,7 @@
         <v>3767.5</v>
       </c>
       <c r="N37" t="n">
-        <v>5148.38808</v>
+        <v>7350</v>
       </c>
       <c r="O37" t="n">
         <v>1863602</v>
@@ -3575,7 +3575,7 @@
         <v>0.975</v>
       </c>
       <c r="G39" t="n">
-        <v>1.4058106188899</v>
+        <v>1.40573662477622</v>
       </c>
       <c r="H39" t="n">
         <v>5</v>
@@ -4235,7 +4235,7 @@
         <v>0.15322</v>
       </c>
       <c r="G47" t="n">
-        <v>0.266163394283406</v>
+        <v>0.266129406220238</v>
       </c>
       <c r="H47" t="n">
         <v>1.34756585239782</v>
@@ -4316,7 +4316,7 @@
         <v>0.15322</v>
       </c>
       <c r="G48" t="n">
-        <v>0.266163394283406</v>
+        <v>0.266129406220238</v>
       </c>
       <c r="H48" t="n">
         <v>1.34756585239782</v>
@@ -4551,7 +4551,7 @@
         <v>0.95</v>
       </c>
       <c r="G51" t="n">
-        <v>1.45798182844525</v>
+        <v>1.45792263315431</v>
       </c>
       <c r="H51" t="n">
         <v>5</v>
@@ -5211,7 +5211,7 @@
         <v>0.16771</v>
       </c>
       <c r="G59" t="n">
-        <v>0.286228587327878</v>
+        <v>0.286201987974094</v>
       </c>
       <c r="H59" t="n">
         <v>1.34756585239782</v>
@@ -5292,7 +5292,7 @@
         <v>0.16771</v>
       </c>
       <c r="G60" t="n">
-        <v>0.286228587327878</v>
+        <v>0.286201987974094</v>
       </c>
       <c r="H60" t="n">
         <v>1.34756585239782</v>
@@ -5689,7 +5689,7 @@
         <v>1.25</v>
       </c>
       <c r="G65" t="n">
-        <v>1.57831386381039</v>
+        <v>1.57825044028438</v>
       </c>
       <c r="H65" t="n">
         <v>5</v>
@@ -6349,7 +6349,7 @@
         <v>0.21956</v>
       </c>
       <c r="G73" t="n">
-        <v>0.312848357598812</v>
+        <v>0.312829685854771</v>
       </c>
       <c r="H73" t="n">
         <v>1.34756585239782</v>
@@ -6430,7 +6430,7 @@
         <v>0.21956</v>
       </c>
       <c r="G74" t="n">
-        <v>0.312848357598812</v>
+        <v>0.312829685854771</v>
       </c>
       <c r="H74" t="n">
         <v>1.34756585239782</v>
@@ -7378,7 +7378,7 @@
         <v>410</v>
       </c>
       <c r="G86" t="n">
-        <v>1307.47780015552</v>
+        <v>1307.46635092047</v>
       </c>
       <c r="H86" t="n">
         <v>30760</v>
@@ -7463,7 +7463,7 @@
         <v>410</v>
       </c>
       <c r="G87" t="n">
-        <v>1307.47780015552</v>
+        <v>1307.46635092047</v>
       </c>
       <c r="H87" t="n">
         <v>30760</v>
@@ -7548,7 +7548,7 @@
         <v>410</v>
       </c>
       <c r="G88" t="n">
-        <v>1307.47780015552</v>
+        <v>1307.46635092047</v>
       </c>
       <c r="H88" t="n">
         <v>30760</v>
@@ -7633,7 +7633,7 @@
         <v>410</v>
       </c>
       <c r="G89" t="n">
-        <v>1307.47780015552</v>
+        <v>1307.46635092047</v>
       </c>
       <c r="H89" t="n">
         <v>30760</v>
@@ -8824,7 +8824,7 @@
         <v>436</v>
       </c>
       <c r="G104" t="n">
-        <v>1305.71054398242</v>
+        <v>1305.70150511266</v>
       </c>
       <c r="H104" t="n">
         <v>30760</v>
@@ -8909,7 +8909,7 @@
         <v>436</v>
       </c>
       <c r="G105" t="n">
-        <v>1305.71054398242</v>
+        <v>1305.70150511266</v>
       </c>
       <c r="H105" t="n">
         <v>30760</v>
@@ -8994,7 +8994,7 @@
         <v>436</v>
       </c>
       <c r="G106" t="n">
-        <v>1305.71054398242</v>
+        <v>1305.70150511266</v>
       </c>
       <c r="H106" t="n">
         <v>30760</v>
@@ -9079,7 +9079,7 @@
         <v>436</v>
       </c>
       <c r="G107" t="n">
-        <v>1305.71054398242</v>
+        <v>1305.70150511266</v>
       </c>
       <c r="H107" t="n">
         <v>30760</v>
@@ -9561,10 +9561,10 @@
         <v>1.411</v>
       </c>
       <c r="G113" t="n">
-        <v>1.34361403508772</v>
+        <v>1.3436298245614</v>
       </c>
       <c r="H113" t="n">
-        <v>2.712</v>
+        <v>2.7119</v>
       </c>
       <c r="I113" t="n">
         <v>2.31525</v>
@@ -9575,10 +9575,10 @@
         <v>0.972</v>
       </c>
       <c r="M113" t="n">
-        <v>1.83041</v>
+        <v>1.83045</v>
       </c>
       <c r="N113" t="n">
-        <v>2.15488</v>
+        <v>2.15489</v>
       </c>
       <c r="O113" t="n">
         <v>1863602</v>
@@ -9638,10 +9638,10 @@
         <v>1.411</v>
       </c>
       <c r="G114" t="n">
-        <v>1.34361403508772</v>
+        <v>1.3436298245614</v>
       </c>
       <c r="H114" t="n">
-        <v>2.712</v>
+        <v>2.7119</v>
       </c>
       <c r="I114" t="n">
         <v>2.31525</v>
@@ -9652,10 +9652,10 @@
         <v>0.972</v>
       </c>
       <c r="M114" t="n">
-        <v>1.83041</v>
+        <v>1.83045</v>
       </c>
       <c r="N114" t="n">
-        <v>2.15488</v>
+        <v>2.15489</v>
       </c>
       <c r="O114" t="n">
         <v>1863602</v>
@@ -10347,7 +10347,7 @@
         <v>479</v>
       </c>
       <c r="G123" t="n">
-        <v>1401.14914047365</v>
+        <v>1401.14010160388</v>
       </c>
       <c r="H123" t="n">
         <v>30760</v>
@@ -10432,7 +10432,7 @@
         <v>479</v>
       </c>
       <c r="G124" t="n">
-        <v>1401.14914047365</v>
+        <v>1401.14010160388</v>
       </c>
       <c r="H124" t="n">
         <v>30760</v>
@@ -10517,7 +10517,7 @@
         <v>479</v>
       </c>
       <c r="G125" t="n">
-        <v>1401.14914047365</v>
+        <v>1401.14010160388</v>
       </c>
       <c r="H125" t="n">
         <v>30760</v>
@@ -10602,7 +10602,7 @@
         <v>479</v>
       </c>
       <c r="G126" t="n">
-        <v>1401.14914047365</v>
+        <v>1401.14010160388</v>
       </c>
       <c r="H126" t="n">
         <v>30760</v>
@@ -11161,10 +11161,10 @@
         <v>1.27</v>
       </c>
       <c r="G133" t="n">
-        <v>1.23817543859649</v>
+        <v>1.23816666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>2.712</v>
+        <v>2.7119</v>
       </c>
       <c r="I133" t="n">
         <v>2.11905</v>
@@ -11238,10 +11238,10 @@
         <v>1.27</v>
       </c>
       <c r="G134" t="n">
-        <v>1.23817543859649</v>
+        <v>1.23816666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>2.712</v>
+        <v>2.7119</v>
       </c>
       <c r="I134" t="n">
         <v>2.11905</v>
@@ -11947,7 +11947,7 @@
         <v>436</v>
       </c>
       <c r="G143" t="n">
-        <v>1319.41527130505</v>
+        <v>1319.40653883765</v>
       </c>
       <c r="H143" t="n">
         <v>30760</v>
@@ -12032,7 +12032,7 @@
         <v>436</v>
       </c>
       <c r="G144" t="n">
-        <v>1319.41527130505</v>
+        <v>1319.40653883765</v>
       </c>
       <c r="H144" t="n">
         <v>30760</v>
@@ -12117,7 +12117,7 @@
         <v>436</v>
       </c>
       <c r="G145" t="n">
-        <v>1319.41527130505</v>
+        <v>1319.40653883765</v>
       </c>
       <c r="H145" t="n">
         <v>30760</v>
@@ -12202,7 +12202,7 @@
         <v>436</v>
       </c>
       <c r="G146" t="n">
-        <v>1319.41527130505</v>
+        <v>1319.40653883765</v>
       </c>
       <c r="H146" t="n">
         <v>30760</v>
@@ -12364,7 +12364,7 @@
         <v>0.15608</v>
       </c>
       <c r="G148" t="n">
-        <v>0.198477399873395</v>
+        <v>0.19846103707328</v>
       </c>
       <c r="H148" t="n">
         <v>0.78957627555523</v>
@@ -12445,7 +12445,7 @@
         <v>0.15608</v>
       </c>
       <c r="G149" t="n">
-        <v>0.198477399873395</v>
+        <v>0.19846103707328</v>
       </c>
       <c r="H149" t="n">
         <v>0.78957627555523</v>
@@ -12758,13 +12758,13 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.301</v>
+        <v>1.3009</v>
       </c>
       <c r="G153" t="n">
-        <v>1.23001694915254</v>
+        <v>1.23001186440678</v>
       </c>
       <c r="H153" t="n">
-        <v>2.712</v>
+        <v>2.7119</v>
       </c>
       <c r="I153" t="n">
         <v>2.11535</v>
@@ -12772,7 +12772,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
-        <v>0.872</v>
+        <v>0.87175</v>
       </c>
       <c r="M153" t="n">
         <v>1.6994</v>
@@ -12835,13 +12835,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.301</v>
+        <v>1.3009</v>
       </c>
       <c r="G154" t="n">
-        <v>1.23001694915254</v>
+        <v>1.23001186440678</v>
       </c>
       <c r="H154" t="n">
-        <v>2.712</v>
+        <v>2.7119</v>
       </c>
       <c r="I154" t="n">
         <v>2.11535</v>
@@ -12849,7 +12849,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.872</v>
+        <v>0.87175</v>
       </c>
       <c r="M154" t="n">
         <v>1.6994</v>
@@ -13547,7 +13547,7 @@
         <v>445</v>
       </c>
       <c r="G163" t="n">
-        <v>929.775016783303</v>
+        <v>929.766429857023</v>
       </c>
       <c r="H163" t="n">
         <v>9700</v>
@@ -13632,7 +13632,7 @@
         <v>445</v>
       </c>
       <c r="G164" t="n">
-        <v>929.775016783303</v>
+        <v>929.766429857023</v>
       </c>
       <c r="H164" t="n">
         <v>9700</v>
@@ -13717,7 +13717,7 @@
         <v>445</v>
       </c>
       <c r="G165" t="n">
-        <v>929.775016783303</v>
+        <v>929.766429857023</v>
       </c>
       <c r="H165" t="n">
         <v>9700</v>
@@ -13802,7 +13802,7 @@
         <v>445</v>
       </c>
       <c r="G166" t="n">
-        <v>929.775016783303</v>
+        <v>929.766429857023</v>
       </c>
       <c r="H166" t="n">
         <v>9700</v>
@@ -13964,7 +13964,7 @@
         <v>0.10124</v>
       </c>
       <c r="G168" t="n">
-        <v>0.15749018970161</v>
+        <v>0.157457361030286</v>
       </c>
       <c r="H168" t="n">
         <v>0.78957627555523</v>
@@ -13975,7 +13975,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.01626</v>
+        <v>0.01595</v>
       </c>
       <c r="M168" t="n">
         <v>0.3187</v>
@@ -14045,7 +14045,7 @@
         <v>0.10124</v>
       </c>
       <c r="G169" t="n">
-        <v>0.15749018970161</v>
+        <v>0.157457361030286</v>
       </c>
       <c r="H169" t="n">
         <v>0.78957627555523</v>
@@ -14056,7 +14056,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.01626</v>
+        <v>0.01595</v>
       </c>
       <c r="M169" t="n">
         <v>0.3187</v>
@@ -14361,21 +14361,21 @@
         <v>1.3925</v>
       </c>
       <c r="G173" t="n">
-        <v>1.34053333333333</v>
+        <v>1.34052833333333</v>
       </c>
       <c r="H173" t="n">
         <v>3.39</v>
       </c>
       <c r="I173" t="n">
-        <v>2.3165</v>
+        <v>2.3166</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>1.045</v>
+        <v>1.04505</v>
       </c>
       <c r="M173" t="n">
-        <v>1.7897</v>
+        <v>1.78984</v>
       </c>
       <c r="N173" t="n">
         <v>2.0782</v>
@@ -14438,21 +14438,21 @@
         <v>1.3925</v>
       </c>
       <c r="G174" t="n">
-        <v>1.34053333333333</v>
+        <v>1.34052833333333</v>
       </c>
       <c r="H174" t="n">
         <v>3.39</v>
       </c>
       <c r="I174" t="n">
-        <v>2.3165</v>
+        <v>2.3166</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>1.045</v>
+        <v>1.04505</v>
       </c>
       <c r="M174" t="n">
-        <v>1.7897</v>
+        <v>1.78984</v>
       </c>
       <c r="N174" t="n">
         <v>2.0782</v>
@@ -15564,7 +15564,7 @@
         <v>0.10322</v>
       </c>
       <c r="G188" t="n">
-        <v>0.133423841051443</v>
+        <v>0.133383526699327</v>
       </c>
       <c r="H188" t="n">
         <v>0.66220637265823</v>
@@ -15575,7 +15575,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.01125</v>
+        <v>0.01072</v>
       </c>
       <c r="M188" t="n">
         <v>0.23705</v>
@@ -15645,7 +15645,7 @@
         <v>0.10322</v>
       </c>
       <c r="G189" t="n">
-        <v>0.133423841051443</v>
+        <v>0.133383526699327</v>
       </c>
       <c r="H189" t="n">
         <v>0.66220637265823</v>
@@ -15656,7 +15656,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.01125</v>
+        <v>0.01072</v>
       </c>
       <c r="M189" t="n">
         <v>0.23705</v>
@@ -15958,16 +15958,16 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1.383</v>
+        <v>1.3828</v>
       </c>
       <c r="G193" t="n">
-        <v>1.41888333333333</v>
+        <v>1.41887833333333</v>
       </c>
       <c r="H193" t="n">
         <v>3.81</v>
       </c>
       <c r="I193" t="n">
-        <v>2.596</v>
+        <v>2.59595</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -16035,16 +16035,16 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1.383</v>
+        <v>1.3828</v>
       </c>
       <c r="G194" t="n">
-        <v>1.41888333333333</v>
+        <v>1.41887833333333</v>
       </c>
       <c r="H194" t="n">
         <v>3.81</v>
       </c>
       <c r="I194" t="n">
-        <v>2.596</v>
+        <v>2.59595</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -17164,7 +17164,7 @@
         <v>0.09</v>
       </c>
       <c r="G208" t="n">
-        <v>0.120178751507611</v>
+        <v>0.120123385330663</v>
       </c>
       <c r="H208" t="n">
         <v>0.66220637265823</v>
@@ -17175,7 +17175,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.01206</v>
+        <v>0.0117</v>
       </c>
       <c r="M208" t="n">
         <v>0.21533</v>
@@ -17245,7 +17245,7 @@
         <v>0.09</v>
       </c>
       <c r="G209" t="n">
-        <v>0.120178751507611</v>
+        <v>0.120123385330663</v>
       </c>
       <c r="H209" t="n">
         <v>0.66220637265823</v>
@@ -17256,7 +17256,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.01206</v>
+        <v>0.0117</v>
       </c>
       <c r="M209" t="n">
         <v>0.21533</v>
@@ -17561,7 +17561,7 @@
         <v>1.316</v>
       </c>
       <c r="G213" t="n">
-        <v>1.39574576271186</v>
+        <v>1.39572542372881</v>
       </c>
       <c r="H213" t="n">
         <v>3.81</v>
@@ -17638,7 +17638,7 @@
         <v>1.316</v>
       </c>
       <c r="G214" t="n">
-        <v>1.39574576271186</v>
+        <v>1.39572542372881</v>
       </c>
       <c r="H214" t="n">
         <v>3.81</v>
@@ -18104,7 +18104,7 @@
         <v>1.07</v>
       </c>
       <c r="G220" t="n">
-        <v>0.977804315355484</v>
+        <v>0.977704407621246</v>
       </c>
       <c r="H220" t="n">
         <v>3.38</v>
@@ -18764,7 +18764,7 @@
         <v>0.10432</v>
       </c>
       <c r="G228" t="n">
-        <v>0.144227052088913</v>
+        <v>0.144056033924388</v>
       </c>
       <c r="H228" t="n">
         <v>0.930823930254938</v>
@@ -18845,7 +18845,7 @@
         <v>0.10432</v>
       </c>
       <c r="G229" t="n">
-        <v>0.144227052088913</v>
+        <v>0.144056033924388</v>
       </c>
       <c r="H229" t="n">
         <v>0.930823930254938</v>
@@ -19158,10 +19158,10 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1.402</v>
+        <v>1.4021</v>
       </c>
       <c r="G233" t="n">
-        <v>1.46165454545455</v>
+        <v>1.46165818181818</v>
       </c>
       <c r="H233" t="n">
         <v>3.81</v>
@@ -19172,7 +19172,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>1.3935</v>
+        <v>1.39355</v>
       </c>
       <c r="M233" t="n">
         <v>2.0215</v>
@@ -19235,10 +19235,10 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1.402</v>
+        <v>1.4021</v>
       </c>
       <c r="G234" t="n">
-        <v>1.46165454545455</v>
+        <v>1.46165818181818</v>
       </c>
       <c r="H234" t="n">
         <v>3.81</v>
@@ -19249,7 +19249,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>1.3935</v>
+        <v>1.39355</v>
       </c>
       <c r="M234" t="n">
         <v>2.0215</v>
@@ -19704,7 +19704,7 @@
         <v>0.9</v>
       </c>
       <c r="G240" t="n">
-        <v>0.9835534759047641</v>
+        <v>0.983443321223426</v>
       </c>
       <c r="H240" t="n">
         <v>3.38</v>
@@ -20364,7 +20364,7 @@
         <v>0.10432</v>
       </c>
       <c r="G248" t="n">
-        <v>0.152527680437696</v>
+        <v>0.152362914107585</v>
       </c>
       <c r="H248" t="n">
         <v>0.930823930254938</v>
@@ -20445,7 +20445,7 @@
         <v>0.10432</v>
       </c>
       <c r="G249" t="n">
-        <v>0.152527680437696</v>
+        <v>0.152362914107585</v>
       </c>
       <c r="H249" t="n">
         <v>0.930823930254938</v>
@@ -21304,7 +21304,7 @@
         <v>0.68</v>
       </c>
       <c r="G260" t="n">
-        <v>0.957840751773112</v>
+        <v>0.957714397873929</v>
       </c>
       <c r="H260" t="n">
         <v>3.38</v>
@@ -21964,7 +21964,7 @@
         <v>0.11538</v>
       </c>
       <c r="G268" t="n">
-        <v>0.166212825610546</v>
+        <v>0.166070377393161</v>
       </c>
       <c r="H268" t="n">
         <v>1.03374651022722</v>
@@ -22045,7 +22045,7 @@
         <v>0.11538</v>
       </c>
       <c r="G269" t="n">
-        <v>0.166212825610546</v>
+        <v>0.166070377393161</v>
       </c>
       <c r="H269" t="n">
         <v>1.03374651022722</v>
@@ -23483,7 +23483,7 @@
         <v>0.09567000000000001</v>
       </c>
       <c r="G287" t="n">
-        <v>0.145020792528754</v>
+        <v>0.144882163948876</v>
       </c>
       <c r="H287" t="n">
         <v>1.03374651022722</v>
@@ -23564,7 +23564,7 @@
         <v>0.09567000000000001</v>
       </c>
       <c r="G288" t="n">
-        <v>0.145020792528754</v>
+        <v>0.144882163948876</v>
       </c>
       <c r="H288" t="n">
         <v>1.03374651022722</v>
@@ -24316,6 +24316,1525 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.53685</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.342615384615385</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1.0387</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.58362</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.92578</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.342615384615385</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1.0387</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.58362</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.92578</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1123.42307692308</v>
+      </c>
+      <c r="H301" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I301" t="n">
+        <v>5072.2</v>
+      </c>
+      <c r="J301" t="n">
+        <v>40.3846153846154</v>
+      </c>
+      <c r="K301" t="n">
+        <v>78.8461538461538</v>
+      </c>
+      <c r="L301" t="n">
+        <v>527</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1277.52</v>
+      </c>
+      <c r="N301" t="n">
+        <v>3643.48</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1123.42307692308</v>
+      </c>
+      <c r="H302" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I302" t="n">
+        <v>5072.2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>40.3846153846154</v>
+      </c>
+      <c r="K302" t="n">
+        <v>78.8461538461538</v>
+      </c>
+      <c r="L302" t="n">
+        <v>527</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1277.52</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3643.48</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1123.42307692308</v>
+      </c>
+      <c r="H303" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I303" t="n">
+        <v>5072.2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>40.3846153846154</v>
+      </c>
+      <c r="K303" t="n">
+        <v>78.8461538461538</v>
+      </c>
+      <c r="L303" t="n">
+        <v>527</v>
+      </c>
+      <c r="M303" t="n">
+        <v>1277.52</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3643.48</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1123.42307692308</v>
+      </c>
+      <c r="H304" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I304" t="n">
+        <v>5072.2</v>
+      </c>
+      <c r="J304" t="n">
+        <v>40.3846153846154</v>
+      </c>
+      <c r="K304" t="n">
+        <v>78.8461538461538</v>
+      </c>
+      <c r="L304" t="n">
+        <v>527</v>
+      </c>
+      <c r="M304" t="n">
+        <v>1277.52</v>
+      </c>
+      <c r="N304" t="n">
+        <v>3643.48</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P304" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>106.15</v>
+      </c>
+      <c r="G305" t="n">
+        <v>103.172</v>
+      </c>
+      <c r="H305" t="n">
+        <v>110</v>
+      </c>
+      <c r="I305" t="n">
+        <v>110</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>106.15</v>
+      </c>
+      <c r="M305" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="N305" t="n">
+        <v>110</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P305" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>0.07278</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.13766248304676</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1.03374651022722</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.41806</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>0.02366</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.23593</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0.34133</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P306" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>0.07278</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.13766248304676</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1.03374651022722</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.41806</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>0.02366</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.23593</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.34133</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P307" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.997288461538462</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1.647</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1.4466</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P308" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.997288461538462</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1.647</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1.4466</v>
+      </c>
+      <c r="N309" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P309" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="G310" t="n">
+        <v>6.2578</v>
+      </c>
+      <c r="H310" t="n">
+        <v>7.689</v>
+      </c>
+      <c r="I310" t="n">
+        <v>7.689</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="M310" t="n">
+        <v>7.44785</v>
+      </c>
+      <c r="N310" t="n">
+        <v>7.689</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1.24369230769231</v>
+      </c>
+      <c r="H311" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2.2354</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1.75518</v>
+      </c>
+      <c r="N311" t="n">
+        <v>2.12584</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1.24369230769231</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2.2354</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1.75518</v>
+      </c>
+      <c r="N312" t="n">
+        <v>2.12584</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P312" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1.54019230769231</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="n">
+        <v>2.0864</v>
+      </c>
+      <c r="N313" t="n">
+        <v>2.3906</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P313" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1.54019230769231</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>2.0864</v>
+      </c>
+      <c r="N314" t="n">
+        <v>2.3906</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P314" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>0.2815</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.398615384615385</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0.60744</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0.98492</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P315" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s Manawatu confluence</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0.2815</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.398615384615385</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.60744</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.98492</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1863602</v>
+      </c>
+      <c r="P316" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
+++ b/state_results/Rivers/MangateraatusManawatuconfluence_01a093830e.xlsx
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="n">
-        <v>4319.58480841348</v>
+        <v>4180.23153889163</v>
       </c>
       <c r="H15" t="n">
         <v>61300</v>
       </c>
       <c r="I15" t="n">
-        <v>18470.08072</v>
+        <v>18070</v>
       </c>
       <c r="J15" t="n">
-        <v>69.6969696969697</v>
+        <v>72.72727272727271</v>
       </c>
       <c r="K15" t="n">
-        <v>81.8181818181818</v>
+        <v>84.8484848484848</v>
       </c>
       <c r="L15" t="n">
         <v>1300</v>
@@ -1624,7 +1624,7 @@
         <v>4072.5</v>
       </c>
       <c r="N15" t="n">
-        <v>9993.796109999999</v>
+        <v>7588</v>
       </c>
       <c r="O15" t="n">
         <v>1863602</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="n">
-        <v>4319.58480841348</v>
+        <v>4180.23153889163</v>
       </c>
       <c r="H16" t="n">
         <v>61300</v>
       </c>
       <c r="I16" t="n">
-        <v>18470.08072</v>
+        <v>18070</v>
       </c>
       <c r="J16" t="n">
-        <v>69.6969696969697</v>
+        <v>72.72727272727271</v>
       </c>
       <c r="K16" t="n">
-        <v>81.8181818181818</v>
+        <v>84.8484848484848</v>
       </c>
       <c r="L16" t="n">
         <v>1300</v>
@@ -1709,7 +1709,7 @@
         <v>4072.5</v>
       </c>
       <c r="N16" t="n">
-        <v>9993.796109999999</v>
+        <v>7588</v>
       </c>
       <c r="O16" t="n">
         <v>1863602</v>
@@ -1770,22 +1770,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="n">
-        <v>4319.58480841348</v>
+        <v>4180.23153889163</v>
       </c>
       <c r="H17" t="n">
         <v>61300</v>
       </c>
       <c r="I17" t="n">
-        <v>18470.08072</v>
+        <v>18070</v>
       </c>
       <c r="J17" t="n">
-        <v>69.6969696969697</v>
+        <v>72.72727272727271</v>
       </c>
       <c r="K17" t="n">
-        <v>81.8181818181818</v>
+        <v>84.8484848484848</v>
       </c>
       <c r="L17" t="n">
         <v>1300</v>
@@ -1794,7 +1794,7 @@
         <v>4072.5</v>
       </c>
       <c r="N17" t="n">
-        <v>9993.796109999999</v>
+        <v>7588</v>
       </c>
       <c r="O17" t="n">
         <v>1863602</v>
@@ -1855,22 +1855,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="n">
-        <v>4319.58480841348</v>
+        <v>4180.23153889163</v>
       </c>
       <c r="H18" t="n">
         <v>61300</v>
       </c>
       <c r="I18" t="n">
-        <v>18470.08072</v>
+        <v>18070</v>
       </c>
       <c r="J18" t="n">
-        <v>69.6969696969697</v>
+        <v>72.72727272727271</v>
       </c>
       <c r="K18" t="n">
-        <v>81.8181818181818</v>
+        <v>84.8484848484848</v>
       </c>
       <c r="L18" t="n">
         <v>1300</v>
@@ -1879,7 +1879,7 @@
         <v>4072.5</v>
       </c>
       <c r="N18" t="n">
-        <v>9993.796109999999</v>
+        <v>7588</v>
       </c>
       <c r="O18" t="n">
         <v>1863602</v>
@@ -2263,19 +2263,19 @@
         <v>910</v>
       </c>
       <c r="G23" t="n">
-        <v>2141.44355583705</v>
+        <v>2023.52925085702</v>
       </c>
       <c r="H23" t="n">
         <v>19900</v>
       </c>
       <c r="I23" t="n">
-        <v>9166.96263</v>
+        <v>6694.55142</v>
       </c>
       <c r="J23" t="n">
-        <v>61.5384615384615</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="K23" t="n">
-        <v>74.35897435897439</v>
+        <v>76.92307692307691</v>
       </c>
       <c r="L23" t="n">
         <v>910</v>
@@ -2284,7 +2284,7 @@
         <v>3100</v>
       </c>
       <c r="N23" t="n">
-        <v>6150</v>
+        <v>5300.95453</v>
       </c>
       <c r="O23" t="n">
         <v>1863602</v>
@@ -2348,19 +2348,19 @@
         <v>910</v>
       </c>
       <c r="G24" t="n">
-        <v>2141.44355583705</v>
+        <v>2023.52925085702</v>
       </c>
       <c r="H24" t="n">
         <v>19900</v>
       </c>
       <c r="I24" t="n">
-        <v>9166.96263</v>
+        <v>6694.55142</v>
       </c>
       <c r="J24" t="n">
-        <v>61.5384615384615</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="K24" t="n">
-        <v>74.35897435897439</v>
+        <v>76.92307692307691</v>
       </c>
       <c r="L24" t="n">
         <v>910</v>
@@ -2369,7 +2369,7 @@
         <v>3100</v>
       </c>
       <c r="N24" t="n">
-        <v>6150</v>
+        <v>5300.95453</v>
       </c>
       <c r="O24" t="n">
         <v>1863602</v>
@@ -2433,19 +2433,19 @@
         <v>910</v>
       </c>
       <c r="G25" t="n">
-        <v>2141.44355583705</v>
+        <v>2023.52925085702</v>
       </c>
       <c r="H25" t="n">
         <v>19900</v>
       </c>
       <c r="I25" t="n">
-        <v>9166.96263</v>
+        <v>6694.55142</v>
       </c>
       <c r="J25" t="n">
-        <v>61.5384615384615</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="K25" t="n">
-        <v>74.35897435897439</v>
+        <v>76.92307692307691</v>
       </c>
       <c r="L25" t="n">
         <v>910</v>
@@ -2454,7 +2454,7 @@
         <v>3100</v>
       </c>
       <c r="N25" t="n">
-        <v>6150</v>
+        <v>5300.95453</v>
       </c>
       <c r="O25" t="n">
         <v>1863602</v>
@@ -2518,19 +2518,19 @@
         <v>910</v>
       </c>
       <c r="G26" t="n">
-        <v>2141.44355583705</v>
+        <v>2023.52925085702</v>
       </c>
       <c r="H26" t="n">
         <v>19900</v>
       </c>
       <c r="I26" t="n">
-        <v>9166.96263</v>
+        <v>6694.55142</v>
       </c>
       <c r="J26" t="n">
-        <v>61.5384615384615</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="K26" t="n">
-        <v>74.35897435897439</v>
+        <v>76.92307692307691</v>
       </c>
       <c r="L26" t="n">
         <v>910</v>
@@ -2539,7 +2539,7 @@
         <v>3100</v>
       </c>
       <c r="N26" t="n">
-        <v>6150</v>
+        <v>5300.95453</v>
       </c>
       <c r="O26" t="n">
         <v>1863602</v>
@@ -3158,13 +3158,13 @@
         <v>1150</v>
       </c>
       <c r="G34" t="n">
-        <v>2417.70369676731</v>
+        <v>2217.70438248149</v>
       </c>
       <c r="H34" t="n">
         <v>19900</v>
       </c>
       <c r="I34" t="n">
-        <v>9967.12406</v>
+        <v>7364.85047</v>
       </c>
       <c r="J34" t="n">
         <v>66.6666666666667</v>
@@ -3179,7 +3179,7 @@
         <v>3767.5</v>
       </c>
       <c r="N34" t="n">
-        <v>7350</v>
+        <v>5428.47605</v>
       </c>
       <c r="O34" t="n">
         <v>1863602</v>
@@ -3243,13 +3243,13 @@
         <v>1150</v>
       </c>
       <c r="G35" t="n">
-        <v>2417.70369676731</v>
+        <v>2217.70438248149</v>
       </c>
       <c r="H35" t="n">
         <v>19900</v>
       </c>
       <c r="I35" t="n">
-        <v>9967.12406</v>
+        <v>7364.85047</v>
       </c>
       <c r="J35" t="n">
         <v>66.6666666666667</v>
@@ -3264,7 +3264,7 @@
         <v>3767.5</v>
       </c>
       <c r="N35" t="n">
-        <v>7350</v>
+        <v>5428.47605</v>
       </c>
       <c r="O35" t="n">
         <v>1863602</v>
@@ -3328,13 +3328,13 @@
         <v>1150</v>
       </c>
       <c r="G36" t="n">
-        <v>2417.70369676731</v>
+        <v>2217.70438248149</v>
       </c>
       <c r="H36" t="n">
         <v>19900</v>
       </c>
       <c r="I36" t="n">
-        <v>9967.12406</v>
+        <v>7364.85047</v>
       </c>
       <c r="J36" t="n">
         <v>66.6666666666667</v>
@@ -3349,7 +3349,7 @@
         <v>3767.5</v>
       </c>
       <c r="N36" t="n">
-        <v>7350</v>
+        <v>5428.47605</v>
       </c>
       <c r="O36" t="n">
         <v>1863602</v>
@@ -3413,13 +3413,13 @@
         <v>1150</v>
       </c>
       <c r="G37" t="n">
-        <v>2417.70369676731</v>
+        <v>2217.70438248149</v>
       </c>
       <c r="H37" t="n">
         <v>19900</v>
       </c>
       <c r="I37" t="n">
-        <v>9967.12406</v>
+        <v>7364.85047</v>
       </c>
       <c r="J37" t="n">
         <v>66.6666666666667</v>
@@ -3434,7 +3434,7 @@
         <v>3767.5</v>
       </c>
       <c r="N37" t="n">
-        <v>7350</v>
+        <v>5428.47605</v>
       </c>
       <c r="O37" t="n">
         <v>1863602</v>
